--- a/TSA components.xlsx
+++ b/TSA components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinJung\Desktop\computer_share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656B639-3A0D-42FB-A2A4-9AB97CBD317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530653F6-C964-4F5D-9186-560A7148FFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-405" windowWidth="29040" windowHeight="17640" xr2:uid="{7776AF56-8715-BC4F-BE5E-67CC5E1ADB39}"/>
+    <workbookView xWindow="25080" yWindow="-408" windowWidth="29040" windowHeight="17640" xr2:uid="{7776AF56-8715-BC4F-BE5E-67CC5E1ADB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>U1</t>
   </si>
@@ -264,13 +253,16 @@
   </si>
   <si>
     <t>OPA657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spafford </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -334,11 +326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,6 +356,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,18 +697,19 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -714,8 +722,11 @@
       <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -729,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -743,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -755,7 +766,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -769,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -783,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -796,8 +807,11 @@
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -811,7 +825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -825,7 +839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.8">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -840,7 +854,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -849,11 +863,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -862,11 +876,11 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -878,7 +892,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -890,7 +904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -902,7 +916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -914,7 +928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -926,7 +940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
@@ -938,7 +952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -950,7 +964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -962,7 +976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
@@ -986,7 +1003,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -997,8 +1014,11 @@
       <c r="D23" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1021,8 +1041,11 @@
       <c r="D25" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1045,8 +1068,11 @@
       <c r="D27" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1058,7 +1084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1070,7 +1096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1082,7 +1108,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1094,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1104,7 +1130,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -1116,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1127,8 +1153,11 @@
       <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -1140,7 +1169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
@@ -1152,7 +1181,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -1164,13 +1193,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
